--- a/영화DB/STAFF_DATA_TABLE.xlsx
+++ b/영화DB/STAFF_DATA_TABLE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joo\Desktop\다운파일\영화DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Joo\jsp\movie\영화DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="152">
   <si>
     <t>MOV_TITLE</t>
   </si>
@@ -498,6 +498,112 @@
   </si>
   <si>
     <t>바이쇼 치에코, 기무라 타쿠야, 미와 아키히로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수상한 그녀</t>
+  </si>
+  <si>
+    <t>아이 캔 스피크</t>
+  </si>
+  <si>
+    <t>걷기왕</t>
+  </si>
+  <si>
+    <t>피끓는 청춘</t>
+  </si>
+  <si>
+    <t>열정같은소리하고있네</t>
+  </si>
+  <si>
+    <t>델타보이즈</t>
+  </si>
+  <si>
+    <t>튼튼이의 모험</t>
+  </si>
+  <si>
+    <t>족구왕</t>
+  </si>
+  <si>
+    <t>극한직업</t>
+  </si>
+  <si>
+    <t>완벽한 타인</t>
+  </si>
+  <si>
+    <t>황동혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심은경, 나문희, 박인환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나문희, 이제훈, 박민철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백승화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심은경, 박주희, 김새벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이연우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박보영, 이종석, 이세영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기훈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정재영, 박보영, 진경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고봉수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백승환, 이웅빈, 신민재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김충길, 백승환, 신민재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우문기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안재홍, 황승언, 정우식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이병헌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>류승룡, 이하늬, 진선규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재규</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유해진, 조진웅, 이서진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,11 +943,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1302,9 +1408,120 @@
         <v>122</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
